--- a/策划案/GGJ配置表/卡牌效果一览表.xlsx
+++ b/策划案/GGJ配置表/卡牌效果一览表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24390" windowHeight="10815" tabRatio="511"/>
+    <workbookView windowWidth="28635" windowHeight="13650" tabRatio="511" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌效果一览表_ggj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="279">
   <si>
     <t>流派</t>
   </si>
@@ -71,7 +71,7 @@
     <t>无</t>
   </si>
   <si>
-    <t>+150信仰，减少10%市民，+10危险</t>
+    <t>+150信仰,减少10%市民,+10危险</t>
   </si>
   <si>
     <t>阴暗小巷的呓语</t>
@@ -80,7 +80,7 @@
     <t>危险小于11时可使用</t>
   </si>
   <si>
-    <t>转化100信徒，+50信仰,+5危险</t>
+    <t>转化100信徒,+50信仰,+5危险</t>
   </si>
   <si>
     <t>癫狂诗篇</t>
@@ -89,7 +89,7 @@
     <t>危险小于21时可使用</t>
   </si>
   <si>
-    <t>转化200信徒，+100信仰,+5危险</t>
+    <t>转化200信徒,+100信仰,+5危险</t>
   </si>
   <si>
     <t>腐败的晚宴</t>
@@ -101,7 +101,7 @@
     <t>危险小于31时可使用</t>
   </si>
   <si>
-    <t>转化300信徒，+150信仰,+5危险</t>
+    <t>转化300信徒,+150信仰,+5危险</t>
   </si>
   <si>
     <t>圣地朝拜</t>
@@ -119,7 +119,7 @@
     <t>危险小于51时可使用</t>
   </si>
   <si>
-    <t>下个抵达的飞机效果翻倍，+60信仰,+5危险</t>
+    <t>下个抵达的飞机效果翻倍,+60信仰,+5危险</t>
   </si>
   <si>
     <t>宗教革命</t>
@@ -128,7 +128,7 @@
     <t>危险大于60时可使用</t>
   </si>
   <si>
-    <t>该城市每有10w非信徒，+0.3%气泡,+5危险</t>
+    <t>该城市每有10w非信徒,+0.3%气泡,+5危险</t>
   </si>
   <si>
     <t>狂教徒的断罪</t>
@@ -137,7 +137,7 @@
     <t>危险大于70时可使用</t>
   </si>
   <si>
-    <t>该城市每有1w信徒，+0.4%气泡,+5危险</t>
+    <t>该城市每有1w信徒,+0.4%气泡,+5危险</t>
   </si>
   <si>
     <t>伏行混沌的演说</t>
@@ -155,7 +155,7 @@
     <t>危险大于90时可使用</t>
   </si>
   <si>
-    <t>消耗全部信仰，每1k信仰，+0.5%气泡,+5危险</t>
+    <t>消耗全部信仰,每1k信仰,+0.5%气泡,+5危险</t>
   </si>
   <si>
     <t>资源流</t>
@@ -164,22 +164,22 @@
     <t>XXX福音上卷</t>
   </si>
   <si>
-    <t>减少100信徒，抽卡，所有卡牌与手牌中剩余流派最多的相同</t>
+    <t>减少100信徒,抽卡,所有卡牌与手牌中剩余流派最多的相同</t>
   </si>
   <si>
     <t>XXX为玩家输入的名字</t>
   </si>
   <si>
-    <t>你们施舍的时候，不可在你前面吹号，像那假冒为善的人，在会堂里和街道上所行的，故意要得人的荣耀。</t>
+    <t>你们施舍的时候,不可在你前面吹号,像那假冒为善的人,在会堂里和街道上所行的,故意要得人的荣耀。</t>
   </si>
   <si>
     <t>XXX福音下卷</t>
   </si>
   <si>
-    <t>减少100信徒，抽卡，所有卡牌与手牌中剩余流派最少的相同</t>
-  </si>
-  <si>
-    <t>你们祷告的时候，不可像那假冒为善的人，爱站在会堂里和十字路口上祷告，故意叫人看见。</t>
+    <t>减少100信徒,抽卡,所有卡牌与手牌中剩余流派最少的相同</t>
+  </si>
+  <si>
+    <t>你们祷告的时候,不可像那假冒为善的人,爱站在会堂里和十字路口上祷告,故意叫人看见。</t>
   </si>
   <si>
     <t>丰饶盛典</t>
@@ -188,19 +188,19 @@
     <t>-100信仰</t>
   </si>
   <si>
-    <t>下次抽卡可以多抽一张，上限为8</t>
-  </si>
-  <si>
-    <t>信仰可使花开遍野，绿树成荫，溪水潺潺，福泽后人。</t>
+    <t>下次抽卡可以多抽一张,上限为8</t>
+  </si>
+  <si>
+    <t>信仰可使花开遍野,绿树成荫,溪水潺潺,福泽后人。</t>
   </si>
   <si>
     <t>道罗斯的凝视</t>
   </si>
   <si>
-    <t>下次抽卡费用为1，+3危险</t>
-  </si>
-  <si>
-    <t>那无数面镜子不应直视，那碎裂的思绪不应记起。</t>
+    <t>下次抽卡费用为1,+3危险</t>
+  </si>
+  <si>
+    <t>那无数面镜子不应直视,那碎裂的思绪不应记起。</t>
   </si>
   <si>
     <t>库苏恩的拥抱</t>
@@ -215,10 +215,10 @@
     <t>手牌上限+1</t>
   </si>
   <si>
-    <t>每个城市最多放置一张，总共最多放置7张</t>
-  </si>
-  <si>
-    <t>于迷雾中蔓延的生命之树，结下的却是带来死亡的迷幻之果。</t>
+    <t>每个城市最多放置一张,总共最多放置7张</t>
+  </si>
+  <si>
+    <t>于迷雾中蔓延的生命之树,结下的却是带来死亡的迷幻之果。</t>
   </si>
   <si>
     <t>秘境回响</t>
@@ -236,25 +236,25 @@
     <t>母神的眷恋</t>
   </si>
   <si>
-    <t>减少1k市民，补满全部手牌，+10危险</t>
-  </si>
-  <si>
-    <t>赞美伟大的母，赞美我们最洁净的孕育者。</t>
+    <t>减少1k市民,补满全部手牌,+10危险</t>
+  </si>
+  <si>
+    <t>赞美伟大的母,赞美我们最洁净的孕育者。</t>
   </si>
   <si>
     <t>克塔帕的愤怒</t>
   </si>
   <si>
-    <t>摧毁目标城市，清空全部手牌</t>
-  </si>
-  <si>
-    <t>最初，没有人在意这场灾难，这不过是一场灾火，一次旱灾，一个物种的灭绝，一座城市的消失。直到这场灾难和每个人息息相关……</t>
+    <t>摧毁目标城市,清空全部手牌</t>
+  </si>
+  <si>
+    <t>最初,没有人在意这场灾难,这不过是一场灾火,一次旱灾,一个物种的灭绝,一座城市的消失。直到这场灾难和每个人息息相关……</t>
   </si>
   <si>
     <t>修格斯增殖</t>
   </si>
   <si>
-    <t>去掉一张该城市的教条牌，随机减少1-200市民，+2危险</t>
+    <t>去掉一张该城市的教条牌,随机减少1-200市民,+2危险</t>
   </si>
   <si>
     <t>Tekeli-li! Tekeli-li!</t>
@@ -263,13 +263,13 @@
     <t>珍珠的低语</t>
   </si>
   <si>
-    <t>每消耗1点信仰，转化该城市50名信徒</t>
+    <t>每消耗1点信仰,转化该城市50名信徒</t>
   </si>
   <si>
     <t>每个城市最多一张</t>
   </si>
   <si>
-    <t>予我所求，予你所愿，凡有所想，皆可实现。</t>
+    <t>予我所求,予你所愿,凡有所想,皆可实现。</t>
   </si>
   <si>
     <t>交通流</t>
@@ -281,19 +281,19 @@
     <t>-200信仰</t>
   </si>
   <si>
-    <t>转移始发地5%非信徒，减少目的地10%信徒，-5危险</t>
+    <t>转移始发地5%非信徒,减少目的地10%信徒,-5危险</t>
   </si>
   <si>
     <t>教皇的巡回艇</t>
   </si>
   <si>
-    <t>转移始发地10%信徒，转化目的地10%信徒</t>
+    <t>转移始发地10%信徒,转化目的地10%信徒</t>
   </si>
   <si>
     <t>米格的太空船</t>
   </si>
   <si>
-    <t>减少始发地10%市民，减少目的地10%市民，+15危险，-1气泡</t>
+    <t>减少始发地10%市民,减少目的地10%市民,+15危险,-1气泡</t>
   </si>
   <si>
     <t>紧急征召</t>
@@ -314,7 +314,7 @@
     <t>-400信仰</t>
   </si>
   <si>
-    <t>所有城市随机向另一个城市转移1%-20%的市民，+1气泡</t>
+    <t>所有城市随机向另一个城市转移1%-20%的市民,+1气泡</t>
   </si>
   <si>
     <t>垃圾牌</t>
@@ -326,13 +326,13 @@
     <t>场地垃圾事件牌</t>
   </si>
   <si>
-    <t>危险值大于20时，每30-45s触发一次</t>
-  </si>
-  <si>
-    <t>减少10%信徒，-2危险</t>
-  </si>
-  <si>
-    <t>自动生成在有空格子的随机城市（若没有空格子，随机替换掉一个非场地垃圾牌的教条牌）</t>
+    <t>危险值大于20时,每30-45s触发一次</t>
+  </si>
+  <si>
+    <t>减少10%信徒,-2危险</t>
+  </si>
+  <si>
+    <t>自动生成在有空格子的随机城市（若没有空格子,随机替换掉一个非场地垃圾牌的教条牌）</t>
   </si>
   <si>
     <t>秘密行刑官</t>
@@ -341,10 +341,10 @@
     <t>场地垃圾教条牌</t>
   </si>
   <si>
-    <t>危险值大于50时，每40-55s触发一次</t>
-  </si>
-  <si>
-    <t>在该教条存在时，该城市信徒无法转化</t>
+    <t>危险值大于50时,每40-55s触发一次</t>
+  </si>
+  <si>
+    <t>在该教条存在时,该城市信徒无法转化</t>
   </si>
   <si>
     <t>真理的清算</t>
@@ -353,19 +353,19 @@
     <t>危险值达到100时触发</t>
   </si>
   <si>
-    <t>所有城市减少10%信徒，信仰值减少20%，危险值降低50</t>
+    <t>所有城市减少10%信徒,信仰值减少20%,危险值降低50</t>
   </si>
   <si>
     <t>耶兰多的低语</t>
   </si>
   <si>
-    <t>每打出10张卡牌增加1%的几率，每消耗100信仰判定一次</t>
-  </si>
-  <si>
-    <t>该教条存在时，每+1危险，-0.2气泡</t>
-  </si>
-  <si>
-    <t>唤我于心，摒弃幻象，以我之名，拔除虚妄。</t>
+    <t>每打出10张卡牌增加1%的几率,每消耗100信仰判定一次</t>
+  </si>
+  <si>
+    <t>该教条存在时,每+1危险,-0.2气泡</t>
+  </si>
+  <si>
+    <t>唤我于心,摒弃幻象,以我之名,拔除虚妄。</t>
   </si>
   <si>
     <t>黄金河流的神刀</t>
@@ -374,10 +374,10 @@
     <t>手牌垃圾事件牌</t>
   </si>
   <si>
-    <t>每打出1张卡牌增加0.3%的几率，每次抽卡进行判定，判定成功下次抽卡时所有卡牌替换成黄金河流的神刀</t>
-  </si>
-  <si>
-    <t>于手牌时，每次抽卡只有2张；
+    <t>每打出1张卡牌增加0.3%的几率,每次抽卡进行判定,判定成功下次抽卡时所有卡牌替换成黄金河流的神刀</t>
+  </si>
+  <si>
+    <t>于手牌时,每次抽卡只有2张；
 使用该牌清除一张库苏恩的拥抱</t>
   </si>
   <si>
@@ -387,32 +387,32 @@
     <t>手牌垃圾教条牌</t>
   </si>
   <si>
-    <t>每次抽卡增加2%的几率，每次打出卡牌时进行判定，判定成功时在手牌生成该事件</t>
-  </si>
-  <si>
-    <t>于手牌时，每秒-5信仰；
+    <t>每次抽卡增加2%的几率,每次打出卡牌时进行判定,判定成功时在手牌生成该事件</t>
+  </si>
+  <si>
+    <t>于手牌时,每秒-5信仰；
 在沙漠使用该牌清空其他教条牌且无法再放置新的教条牌</t>
   </si>
   <si>
     <t>航空管制</t>
   </si>
   <si>
-    <t>全图机场总数每有1个，增加5%的发生概率，每40-80s判定一次</t>
-  </si>
-  <si>
-    <t>该教条存在时，该城市无法成为始发地或目的地</t>
-  </si>
-  <si>
-    <t>判定成功生成在有机场的城市（如果一个城市4个格子都被占满，则替换掉其中一个机场）</t>
+    <t>全图机场总数每有1个,增加5%的发生概率,每40-80s判定一次</t>
+  </si>
+  <si>
+    <t>该教条存在时,该城市无法成为始发地或目的地</t>
+  </si>
+  <si>
+    <t>判定成功生成在有机场的城市（如果一个城市4个格子都被占满,则替换掉其中一个机场）</t>
   </si>
   <si>
     <t>警戒航线</t>
   </si>
   <si>
-    <t>每使用一张交通流卡牌，增加3%的概率，每40-50s判定一次，判定成功下次抽卡时所有卡替换成警戒航线</t>
-  </si>
-  <si>
-    <t>所有其他城市减少5%信徒，-2危险</t>
+    <t>每使用一张交通流卡牌,增加3%的概率,每40-50s判定一次,判定成功下次抽卡时所有卡替换成警戒航线</t>
+  </si>
+  <si>
+    <t>所有其他城市减少5%信徒,-2危险</t>
   </si>
   <si>
     <t>遗物牌</t>
@@ -421,19 +421,19 @@
     <t>食梦貘的贡品</t>
   </si>
   <si>
-    <t>每次抽牌有5%的几率抽到，每个被摧毁的城市增加10%的几率</t>
+    <t>每次抽牌有5%的几率抽到,每个被摧毁的城市增加10%的几率</t>
   </si>
   <si>
     <t>持有该牌时每5s+1危险,</t>
   </si>
   <si>
-    <t>遗物牌只可放置在雪山城市，同时存在3个遗物牌时游戏胜利</t>
+    <t>遗物牌只可放置在雪山城市,同时存在3个遗物牌时游戏胜利</t>
   </si>
   <si>
     <t>食梦貘的躯干</t>
   </si>
   <si>
-    <t>每次抽牌有1%的几率抽到，每次抽牌增加0.5%的几率</t>
+    <t>每次抽牌有1%的几率抽到,每次抽牌增加0.5%的几率</t>
   </si>
   <si>
     <t>持有该牌时抽卡费用减半</t>
@@ -442,10 +442,10 @@
     <t>食梦貘的头</t>
   </si>
   <si>
-    <t>每次抽牌有4%的几率抽到，使用一张交通流卡牌增加1.2%的几率</t>
-  </si>
-  <si>
-    <t>持有该牌时，交通卡的百分比效果翻倍</t>
+    <t>每次抽牌有4%的几率抽到,使用一张交通流卡牌增加1.2%的几率</t>
+  </si>
+  <si>
+    <t>持有该牌时,交通卡的百分比效果翻倍</t>
   </si>
   <si>
     <t>探索牌</t>
@@ -454,7 +454,7 @@
     <t>x布道场</t>
   </si>
   <si>
-    <t>+(探索次数*4)危险，+(探索次数*100)信仰</t>
+    <t>+(探索次数*4)危险,+(探索次数*100)信仰</t>
   </si>
   <si>
     <t>buff名称</t>
@@ -475,7 +475,7 @@
     <t>退行者的药剂</t>
   </si>
   <si>
-    <t>初始手牌有12张</t>
+    <t>初始手牌有10张</t>
   </si>
   <si>
     <t>暗影之拥</t>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>手牌上限</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>初始抽卡费用</t>
@@ -750,6 +753,9 @@
   </si>
   <si>
     <t>杀死目标城市1000人，补满全部手牌，危险值+10</t>
+  </si>
+  <si>
+    <t>摧毁目标城市，清空全部手牌</t>
   </si>
   <si>
     <t>去掉一张该城市的教条牌，随机杀死该城市（1-200）个市民，危险值+2</t>
@@ -1029,7 +1035,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1039,6 +1045,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,7 +1420,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1426,16 +1444,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1444,89 +1462,89 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1563,10 +1581,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1575,17 +1593,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1593,7 +1608,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2131,8 +2146,8 @@
   <sheetPr/>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2196,11 +2211,11 @@
       <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="19"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5"/>
@@ -2222,8 +2237,8 @@
       <c r="G3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5"/>
@@ -2245,8 +2260,8 @@
       <c r="G4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="19"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5"/>
@@ -2268,96 +2283,96 @@
       <c r="G5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="19"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5"/>
-      <c r="B6" s="3">
+      <c r="B6" s="12">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="17"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5"/>
-      <c r="B7" s="3">
+      <c r="B7" s="12">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="17"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5"/>
-      <c r="B8" s="3">
+      <c r="B8" s="12">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="17"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5"/>
-      <c r="B9" s="3">
+      <c r="B9" s="12">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="12" t="s">
         <v>35</v>
       </c>
       <c r="H9" s="5"/>
@@ -2365,26 +2380,26 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5"/>
-      <c r="B10" s="3">
+      <c r="B10" s="12">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="17"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5"/>
@@ -2406,60 +2421,60 @@
       <c r="G11" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="19"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
     </row>
     <row r="12" ht="40.5" spans="1:9">
       <c r="A12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="13">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="E12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>44</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:9">
       <c r="A13" s="5"/>
-      <c r="B13" s="3">
-        <v>12</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="E13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>48</v>
       </c>
       <c r="H13" s="15"/>
-      <c r="I13" s="13" t="s">
+      <c r="I13" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2477,14 +2492,14 @@
       <c r="E14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="20" t="s">
         <v>51</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12" t="s">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2508,8 +2523,8 @@
       <c r="G15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13" t="s">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2527,143 +2542,143 @@
       <c r="E16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="20" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5"/>
-      <c r="B17" s="3">
+      <c r="B17" s="12">
         <v>16</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="22" t="s">
+      <c r="E17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13" t="s">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5"/>
-      <c r="B18" s="3">
+      <c r="B18" s="13">
         <v>17</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="E18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13" t="s">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" ht="40.5" spans="1:9">
       <c r="A19" s="5"/>
-      <c r="B19" s="3">
+      <c r="B19" s="12">
         <v>18</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="E19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13" t="s">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5"/>
-      <c r="B20" s="3">
+      <c r="B20" s="13">
         <v>19</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="E20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13" t="s">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="5"/>
-      <c r="B21" s="3">
+      <c r="B21" s="13">
         <v>20</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="E21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2671,72 +2686,72 @@
       <c r="A22" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="12">
         <v>21</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="22" t="s">
+      <c r="E22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="17"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="5"/>
-      <c r="B23" s="3">
+      <c r="B23" s="12">
         <v>22</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="22" t="s">
+      <c r="E23" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="17"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5"/>
-      <c r="B24" s="3">
+      <c r="B24" s="12">
         <v>23</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="22" t="s">
+      <c r="E24" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="17"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="5"/>
@@ -2752,21 +2767,21 @@
       <c r="E25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>64</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="17"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5"/>
       <c r="B26" s="11">
         <v>25</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="17" t="s">
         <v>90</v>
       </c>
       <c r="D26" s="11" t="s">
@@ -2775,14 +2790,14 @@
       <c r="E26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5"/>
@@ -2798,64 +2813,64 @@
       <c r="E27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="20" t="s">
         <v>93</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="H27" s="13"/>
-      <c r="I27" s="17"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="4"/>
     </row>
     <row r="28" ht="27" spans="1:9">
       <c r="A28" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="13">
         <v>27</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="3" t="s">
+      <c r="F28" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="13" t="s">
         <v>99</v>
       </c>
       <c r="H28" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="I28" s="17"/>
+      <c r="I28" s="4"/>
     </row>
     <row r="29" ht="27" spans="1:9">
       <c r="A29" s="5"/>
-      <c r="B29" s="3">
+      <c r="B29" s="13">
         <v>28</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="13" t="s">
         <v>104</v>
       </c>
       <c r="H29" s="18"/>
-      <c r="I29" s="17"/>
+      <c r="I29" s="4"/>
     </row>
     <row r="30" ht="27" spans="1:9">
       <c r="A30" s="5"/>
@@ -2878,7 +2893,7 @@
         <v>107</v>
       </c>
       <c r="H30" s="18"/>
-      <c r="I30" s="17"/>
+      <c r="I30" s="4"/>
     </row>
     <row r="31" ht="27" spans="1:9">
       <c r="A31" s="5"/>
@@ -2901,7 +2916,7 @@
         <v>110</v>
       </c>
       <c r="H31" s="18"/>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2925,8 +2940,8 @@
       <c r="G32" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="19"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="4"/>
     </row>
     <row r="33" ht="40.5" spans="1:9">
       <c r="A33" s="5"/>
@@ -2953,22 +2968,22 @@
     </row>
     <row r="34" ht="54" spans="1:9">
       <c r="A34" s="5"/>
-      <c r="B34" s="3">
+      <c r="B34" s="12">
         <v>33</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="3" t="s">
+      <c r="F34" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>122</v>
       </c>
       <c r="H34" s="5" t="s">
@@ -2978,22 +2993,22 @@
     </row>
     <row r="35" ht="54" spans="1:9">
       <c r="A35" s="5"/>
-      <c r="B35" s="3">
+      <c r="B35" s="13">
         <v>34</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="3" t="s">
+      <c r="F35" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="13" t="s">
         <v>126</v>
       </c>
       <c r="H35" s="5"/>
@@ -3024,7 +3039,7 @@
       <c r="H36" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="I36" s="17"/>
+      <c r="I36" s="4"/>
     </row>
     <row r="37" ht="27" spans="1:9">
       <c r="A37" s="5"/>
@@ -3047,7 +3062,7 @@
         <v>134</v>
       </c>
       <c r="H37" s="18"/>
-      <c r="I37" s="17"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" ht="40.5" spans="1:9">
       <c r="A38" s="5"/>
@@ -3070,7 +3085,7 @@
         <v>137</v>
       </c>
       <c r="H38" s="18"/>
-      <c r="I38" s="17"/>
+      <c r="I38" s="4"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
@@ -3091,11 +3106,11 @@
       <c r="F39" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="21" t="s">
+      <c r="G39" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="19"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3118,8 +3133,8 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3297,7 +3312,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3344,8 +3359,8 @@
       <c r="B3" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="6">
-        <v>12</v>
+      <c r="C3" s="6" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3353,13 +3368,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C4" s="6">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3367,7 +3382,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -3378,13 +3393,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C6" s="6">
         <v>99</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3392,7 +3407,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C7" s="6">
         <v>300</v>
@@ -3403,13 +3418,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3417,10 +3432,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3428,10 +3443,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3439,10 +3454,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3450,10 +3465,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:4">
@@ -3461,13 +3476,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3481,10 +3496,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3492,10 +3507,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3503,7 +3518,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C17" s="1">
         <v>18750</v>
@@ -3514,10 +3529,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3525,7 +3540,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C19" s="1">
         <v>31250</v>
@@ -3537,10 +3552,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3548,7 +3563,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C21" s="1">
         <v>7500</v>
@@ -3559,10 +3574,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3570,7 +3585,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C23" s="1">
         <v>5000</v>
@@ -3581,10 +3596,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3592,7 +3607,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C25" s="1">
         <v>3750</v>
@@ -3603,10 +3618,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3614,7 +3629,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C27" s="1">
         <v>8750</v>
@@ -3625,10 +3640,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3639,48 +3654,48 @@
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -3725,7 +3740,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3740,7 +3755,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3755,7 +3770,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3770,7 +3785,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3785,7 +3800,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3800,7 +3815,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3815,7 +3830,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3830,7 +3845,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3845,7 +3860,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3860,7 +3875,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3871,13 +3886,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3886,13 +3901,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3907,7 +3922,7 @@
         <v>21</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3922,7 +3937,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3937,7 +3952,7 @@
         <v>58</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3952,7 +3967,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3967,7 +3982,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3982,7 +3997,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>71</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3997,7 +4012,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" ht="27" spans="1:5">
@@ -4012,7 +4027,7 @@
         <v>58</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:6">
@@ -4023,16 +4038,16 @@
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:5">
@@ -4041,13 +4056,13 @@
         <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" ht="27" spans="1:5">
@@ -4056,13 +4071,13 @@
         <v>23</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:5">
@@ -4071,13 +4086,13 @@
         <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:5">
@@ -4086,13 +4101,13 @@
         <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4101,13 +4116,13 @@
         <v>26</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:5">
@@ -4116,13 +4131,13 @@
         <v>27</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4131,13 +4146,13 @@
         <v>28</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:5">
@@ -4146,13 +4161,13 @@
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4161,13 +4176,13 @@
         <v>30</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" ht="40.5" spans="1:5">
@@ -4178,13 +4193,13 @@
         <v>31</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>97</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" ht="40.5" spans="1:5">
@@ -4199,7 +4214,7 @@
         <v>102</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33" ht="40.5" spans="1:5">
@@ -4214,7 +4229,7 @@
         <v>97</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34" ht="40.5" spans="1:5">
@@ -4229,7 +4244,7 @@
         <v>102</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" ht="40.5" spans="1:5">
@@ -4244,7 +4259,7 @@
         <v>113</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" ht="40.5" spans="1:5">
@@ -4259,7 +4274,7 @@
         <v>117</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" ht="40.5" spans="1:5">
@@ -4274,7 +4289,7 @@
         <v>102</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" ht="40.5" spans="1:5">
@@ -4289,7 +4304,7 @@
         <v>113</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:5">
@@ -4298,13 +4313,13 @@
         <v>39</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>113</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:5">
@@ -4321,7 +4336,7 @@
         <v>127</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="41" ht="27" spans="1:5">
@@ -4336,7 +4351,7 @@
         <v>127</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" ht="27" spans="1:5">
@@ -4351,7 +4366,7 @@
         <v>127</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" ht="27" spans="1:5">
@@ -4368,7 +4383,7 @@
         <v>138</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/策划案/GGJ配置表/卡牌效果一览表.xlsx
+++ b/策划案/GGJ配置表/卡牌效果一览表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28635" windowHeight="13650" tabRatio="511" activeTab="1"/>
+    <workbookView windowWidth="15240" windowHeight="13545" tabRatio="511"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌效果一览表_ggj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="280">
   <si>
     <t>流派</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>判定成功生成在有机场的城市（如果一个城市4个格子都被占满,则替换掉其中一个机场）</t>
+  </si>
+  <si>
+    <t>如果癌症无法根治，切断与肿瘤相连的部位是一种有效的方式。</t>
   </si>
   <si>
     <t>警戒航线</t>
@@ -1544,7 +1547,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1592,12 +1595,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2146,8 +2143,8 @@
   <sheetPr/>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2188,7 +2185,7 @@
       <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2211,11 +2208,11 @@
       <c r="F2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="18" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5"/>
@@ -2238,7 +2235,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="4"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5"/>
@@ -2261,7 +2258,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="4"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5"/>
@@ -2284,7 +2281,7 @@
         <v>23</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="4"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5"/>
@@ -2307,7 +2304,7 @@
         <v>26</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="4"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5"/>
@@ -2330,7 +2327,7 @@
         <v>29</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="4"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5"/>
@@ -2353,7 +2350,7 @@
         <v>32</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="4"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5"/>
@@ -2376,7 +2373,7 @@
         <v>35</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5"/>
@@ -2399,7 +2396,7 @@
         <v>38</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="4"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5"/>
@@ -2422,7 +2419,7 @@
         <v>41</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="4"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" ht="40.5" spans="1:9">
       <c r="A12" s="5" t="s">
@@ -2492,7 +2489,7 @@
       <c r="E14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="18" t="s">
         <v>51</v>
       </c>
       <c r="G14" s="11" t="s">
@@ -2542,7 +2539,7 @@
       <c r="E16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="18" t="s">
         <v>59</v>
       </c>
       <c r="G16" s="11" t="s">
@@ -2569,7 +2566,7 @@
       <c r="E17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="19" t="s">
         <v>64</v>
       </c>
       <c r="G17" s="12" t="s">
@@ -2698,21 +2695,21 @@
       <c r="E22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="19" t="s">
         <v>82</v>
       </c>
       <c r="G22" s="12" t="s">
         <v>83</v>
       </c>
       <c r="H22" s="3"/>
-      <c r="I22" s="4"/>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="5"/>
       <c r="B23" s="12">
         <v>22</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="12" t="s">
         <v>84</v>
       </c>
       <c r="D23" s="12" t="s">
@@ -2721,21 +2718,21 @@
       <c r="E23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="19" t="s">
         <v>82</v>
       </c>
       <c r="G23" s="12" t="s">
         <v>85</v>
       </c>
       <c r="H23" s="3"/>
-      <c r="I23" s="4"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5"/>
       <c r="B24" s="12">
         <v>23</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="12" t="s">
         <v>86</v>
       </c>
       <c r="D24" s="12" t="s">
@@ -2744,14 +2741,14 @@
       <c r="E24" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="12" t="s">
         <v>87</v>
       </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="4"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="5"/>
@@ -2767,21 +2764,21 @@
       <c r="E25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="18" t="s">
         <v>64</v>
       </c>
       <c r="G25" s="11" t="s">
         <v>89</v>
       </c>
       <c r="H25" s="3"/>
-      <c r="I25" s="4"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5"/>
       <c r="B26" s="11">
         <v>25</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="11" t="s">
         <v>90</v>
       </c>
       <c r="D26" s="11" t="s">
@@ -2790,14 +2787,14 @@
       <c r="E26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="17" t="s">
+      <c r="G26" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5"/>
@@ -2813,14 +2810,14 @@
       <c r="E27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="18" t="s">
         <v>93</v>
       </c>
       <c r="G27" s="11" t="s">
         <v>94</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="4"/>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" ht="27" spans="1:9">
       <c r="A28" s="5" t="s">
@@ -2844,10 +2841,10 @@
       <c r="G28" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="I28" s="4"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" ht="27" spans="1:9">
       <c r="A29" s="5"/>
@@ -2869,8 +2866,8 @@
       <c r="G29" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="4"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="3"/>
     </row>
     <row r="30" ht="27" spans="1:9">
       <c r="A30" s="5"/>
@@ -2892,8 +2889,8 @@
       <c r="G30" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="4"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="3"/>
     </row>
     <row r="31" ht="27" spans="1:9">
       <c r="A31" s="5"/>
@@ -2915,8 +2912,8 @@
       <c r="G31" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="H31" s="18"/>
-      <c r="I31" s="19" t="s">
+      <c r="H31" s="16"/>
+      <c r="I31" s="17" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2941,7 +2938,7 @@
         <v>115</v>
       </c>
       <c r="H32" s="3"/>
-      <c r="I32" s="4"/>
+      <c r="I32" s="3"/>
     </row>
     <row r="33" ht="40.5" spans="1:9">
       <c r="A33" s="5"/>
@@ -2964,7 +2961,7 @@
         <v>119</v>
       </c>
       <c r="H33" s="5"/>
-      <c r="I33" s="2"/>
+      <c r="I33" s="5"/>
     </row>
     <row r="34" ht="54" spans="1:9">
       <c r="A34" s="5"/>
@@ -2989,7 +2986,9 @@
       <c r="H34" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="I34" s="2"/>
+      <c r="I34" s="5" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="35" ht="54" spans="1:9">
       <c r="A35" s="5"/>
@@ -2997,49 +2996,49 @@
         <v>34</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>113</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H35" s="5"/>
-      <c r="I35" s="2"/>
+      <c r="I35" s="5"/>
     </row>
     <row r="36" ht="27" spans="1:9">
       <c r="A36" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B36" s="3">
         <v>35</v>
       </c>
       <c r="C36" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>127</v>
-      </c>
       <c r="E36" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H36" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="I36" s="4"/>
+      <c r="H36" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="I36" s="3"/>
     </row>
     <row r="37" ht="27" spans="1:9">
       <c r="A37" s="5"/>
@@ -3047,22 +3046,22 @@
         <v>36</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H37" s="18"/>
-      <c r="I37" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="H37" s="16"/>
+      <c r="I37" s="3"/>
     </row>
     <row r="38" ht="40.5" spans="1:9">
       <c r="A38" s="5"/>
@@ -3070,47 +3069,47 @@
         <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="H38" s="16"/>
+      <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B39" s="11">
         <v>38</v>
       </c>
       <c r="C39" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>138</v>
-      </c>
       <c r="E39" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="20" t="s">
-        <v>140</v>
+      <c r="G39" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="H39" s="3"/>
-      <c r="I39" s="4"/>
+      <c r="I39" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3133,7 +3132,7 @@
   <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -3152,13 +3151,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -3169,10 +3168,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3180,10 +3179,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3191,10 +3190,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3202,10 +3201,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3213,10 +3212,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3224,10 +3223,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3235,13 +3234,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3249,13 +3248,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3263,13 +3262,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3277,13 +3276,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3291,13 +3290,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3329,10 +3328,10 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -3343,13 +3342,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C2" s="6">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3357,10 +3356,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3368,13 +3367,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C4" s="6">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3382,7 +3381,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -3393,13 +3392,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C6" s="6">
         <v>99</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3407,7 +3406,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C7" s="6">
         <v>300</v>
@@ -3418,13 +3417,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3432,10 +3431,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3443,10 +3442,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3454,10 +3453,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3465,10 +3464,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:4">
@@ -3476,13 +3475,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3496,10 +3495,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3507,10 +3506,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3518,7 +3517,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C17" s="1">
         <v>18750</v>
@@ -3529,10 +3528,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3540,7 +3539,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C19" s="1">
         <v>31250</v>
@@ -3552,10 +3551,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3563,7 +3562,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C21" s="1">
         <v>7500</v>
@@ -3574,10 +3573,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3585,7 +3584,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C23" s="1">
         <v>5000</v>
@@ -3596,10 +3595,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3607,7 +3606,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C25" s="1">
         <v>3750</v>
@@ -3618,10 +3617,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3629,7 +3628,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C27" s="1">
         <v>8750</v>
@@ -3640,10 +3639,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3654,48 +3653,48 @@
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -3740,7 +3739,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3755,7 +3754,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3770,7 +3769,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3785,7 +3784,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3800,7 +3799,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3815,7 +3814,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3830,7 +3829,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3845,7 +3844,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3860,7 +3859,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3875,7 +3874,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3886,13 +3885,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3901,13 +3900,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3922,7 +3921,7 @@
         <v>21</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3937,7 +3936,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3952,7 +3951,7 @@
         <v>58</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3967,7 +3966,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3982,7 +3981,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3997,7 +3996,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4012,7 +4011,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" ht="27" spans="1:5">
@@ -4027,7 +4026,7 @@
         <v>58</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:6">
@@ -4038,16 +4037,16 @@
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:5">
@@ -4056,13 +4055,13 @@
         <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" ht="27" spans="1:5">
@@ -4071,13 +4070,13 @@
         <v>23</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:5">
@@ -4086,13 +4085,13 @@
         <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:5">
@@ -4101,13 +4100,13 @@
         <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4116,13 +4115,13 @@
         <v>26</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:5">
@@ -4131,13 +4130,13 @@
         <v>27</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4146,13 +4145,13 @@
         <v>28</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:5">
@@ -4161,13 +4160,13 @@
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4176,13 +4175,13 @@
         <v>30</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31" ht="40.5" spans="1:5">
@@ -4193,13 +4192,13 @@
         <v>31</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>97</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32" ht="40.5" spans="1:5">
@@ -4214,7 +4213,7 @@
         <v>102</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" ht="40.5" spans="1:5">
@@ -4229,7 +4228,7 @@
         <v>97</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" ht="40.5" spans="1:5">
@@ -4244,7 +4243,7 @@
         <v>102</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" ht="40.5" spans="1:5">
@@ -4259,7 +4258,7 @@
         <v>113</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" ht="40.5" spans="1:5">
@@ -4274,7 +4273,7 @@
         <v>117</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" ht="40.5" spans="1:5">
@@ -4289,7 +4288,7 @@
         <v>102</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" ht="40.5" spans="1:5">
@@ -4298,13 +4297,13 @@
         <v>38</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>113</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:5">
@@ -4313,30 +4312,30 @@
         <v>39</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>113</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B40" s="3">
         <v>40</v>
       </c>
       <c r="C40" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="E40" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" ht="27" spans="1:5">
@@ -4345,13 +4344,13 @@
         <v>41</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" ht="27" spans="1:5">
@@ -4360,30 +4359,30 @@
         <v>42</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" ht="27" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B43" s="2">
         <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="E43" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/策划案/GGJ配置表/卡牌效果一览表.xlsx
+++ b/策划案/GGJ配置表/卡牌效果一览表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15240" windowHeight="13545" tabRatio="511"/>
+    <workbookView windowWidth="26430" windowHeight="11775" tabRatio="511"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌效果一览表_ggj" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="303">
   <si>
     <t>流派</t>
   </si>
@@ -71,7 +71,10 @@
     <t>无</t>
   </si>
   <si>
-    <t>+150信仰,减少10%市民,+10危险</t>
+    <t>+150信仰,减少800市民,+10危险</t>
+  </si>
+  <si>
+    <t>怀揣信仰，然后置身人群中。</t>
   </si>
   <si>
     <t>阴暗小巷的呓语</t>
@@ -80,7 +83,10 @@
     <t>危险小于11时可使用</t>
   </si>
   <si>
-    <t>转化100信徒,+50信仰,+5危险</t>
+    <t>转化600信徒,+100信仰,+5危险</t>
+  </si>
+  <si>
+    <t>让思想下沉。</t>
   </si>
   <si>
     <t>癫狂诗篇</t>
@@ -89,7 +95,10 @@
     <t>危险小于21时可使用</t>
   </si>
   <si>
-    <t>转化200信徒,+100信仰,+5危险</t>
+    <t>转化400信徒,+300信仰,+5危险</t>
+  </si>
+  <si>
+    <t>用知识引领。</t>
   </si>
   <si>
     <t>腐败的晚宴</t>
@@ -101,7 +110,10 @@
     <t>危险小于31时可使用</t>
   </si>
   <si>
-    <t>转化300信徒,+150信仰,+5危险</t>
+    <t>转化200信徒,+500信仰,+5危险</t>
+  </si>
+  <si>
+    <t>使意志强硬。</t>
   </si>
   <si>
     <t>圣地朝拜</t>
@@ -110,7 +122,10 @@
     <t>危险小于41时可使用</t>
   </si>
   <si>
-    <t>每个被摧毁的城市+500信仰,+5危险</t>
+    <t>每个被摧毁的城市+800信仰,+5危险</t>
+  </si>
+  <si>
+    <t>消逝了的总是值得纪念。</t>
   </si>
   <si>
     <t>万门归宗</t>
@@ -119,7 +134,10 @@
     <t>危险小于51时可使用</t>
   </si>
   <si>
-    <t>下个抵达的飞机效果翻倍,+60信仰,+5危险</t>
+    <t>下个抵达的飞机效果翻倍,+200信仰,+5危险</t>
+  </si>
+  <si>
+    <t>你有一个思想，我也有一个思想。</t>
   </si>
   <si>
     <t>宗教革命</t>
@@ -128,7 +146,10 @@
     <t>危险大于60时可使用</t>
   </si>
   <si>
-    <t>该城市每有10w非信徒,+0.3%气泡,+5危险</t>
+    <t>该城市每有500非信徒,+0.3%气泡,+5危险</t>
+  </si>
+  <si>
+    <t>我的思想，也将成为你的思想。</t>
   </si>
   <si>
     <t>狂教徒的断罪</t>
@@ -137,7 +158,10 @@
     <t>危险大于70时可使用</t>
   </si>
   <si>
-    <t>该城市每有1w信徒,+0.4%气泡,+5危险</t>
+    <t>该城市每有500信徒,+0.4%气泡,+5危险</t>
+  </si>
+  <si>
+    <t>长远来看，你总归会认同我们的思想。</t>
   </si>
   <si>
     <t>伏行混沌的演说</t>
@@ -146,7 +170,10 @@
     <t>危险大于80时可使用</t>
   </si>
   <si>
-    <t>每个有教条的城市+0.5%气泡,+5危险</t>
+    <t>每个有教条的城市+0.8%气泡,+5危险</t>
+  </si>
+  <si>
+    <t>聆听那高挑的身影，诉说的真实。</t>
   </si>
   <si>
     <t>银匙门扉的开启</t>
@@ -158,6 +185,9 @@
     <t>消耗全部信仰,每1k信仰,+0.5%气泡,+5危险</t>
   </si>
   <si>
+    <t>不应打开那扇通往真实的门。</t>
+  </si>
+  <si>
     <t>资源流</t>
   </si>
   <si>
@@ -170,7 +200,7 @@
     <t>XXX为玩家输入的名字</t>
   </si>
   <si>
-    <t>你们施舍的时候,不可在你前面吹号,像那假冒为善的人,在会堂里和街道上所行的,故意要得人的荣耀。</t>
+    <t>对真实的感悟离不开奉献自己的知觉。</t>
   </si>
   <si>
     <t>XXX福音下卷</t>
@@ -179,19 +209,19 @@
     <t>减少100信徒,抽卡,所有卡牌与手牌中剩余流派最少的相同</t>
   </si>
   <si>
-    <t>你们祷告的时候,不可像那假冒为善的人,爱站在会堂里和十字路口上祷告,故意叫人看见。</t>
+    <t>对知觉的理解离不开置身真实的幻境。</t>
   </si>
   <si>
     <t>丰饶盛典</t>
   </si>
   <si>
-    <t>-100信仰</t>
+    <t>-200信仰</t>
   </si>
   <si>
     <t>下次抽卡可以多抽一张,上限为8</t>
   </si>
   <si>
-    <t>信仰可使花开遍野,绿树成荫,溪水潺潺,福泽后人。</t>
+    <t>信仰可使花开遍野,绿树成荫。</t>
   </si>
   <si>
     <t>道罗斯的凝视</t>
@@ -200,7 +230,7 @@
     <t>下次抽卡费用为1,+3危险</t>
   </si>
   <si>
-    <t>那无数面镜子不应直视,那碎裂的思绪不应记起。</t>
+    <t>无数面镜子不应直视。</t>
   </si>
   <si>
     <t>库苏恩的拥抱</t>
@@ -218,7 +248,7 @@
     <t>每个城市最多放置一张,总共最多放置7张</t>
   </si>
   <si>
-    <t>于迷雾中蔓延的生命之树,结下的却是带来死亡的迷幻之果。</t>
+    <t>迷雾中蔓延的藤蔓，名为生命。</t>
   </si>
   <si>
     <t>秘境回响</t>
@@ -248,7 +278,7 @@
     <t>摧毁目标城市,清空全部手牌</t>
   </si>
   <si>
-    <t>最初,没有人在意这场灾难,这不过是一场灾火,一次旱灾,一个物种的灭绝,一座城市的消失。直到这场灾难和每个人息息相关……</t>
+    <t>最初,没有人在意这场灾难,这不过是一场山火……</t>
   </si>
   <si>
     <t>修格斯增殖</t>
@@ -278,36 +308,48 @@
     <t>女帝的武装舰</t>
   </si>
   <si>
-    <t>-200信仰</t>
-  </si>
-  <si>
     <t>转移始发地5%非信徒,减少目的地10%信徒,-5危险</t>
   </si>
   <si>
+    <t>宗教并非救赎之路，忠诚才是。</t>
+  </si>
+  <si>
     <t>教皇的巡回艇</t>
   </si>
   <si>
     <t>转移始发地10%信徒,转化目的地10%信徒</t>
   </si>
   <si>
+    <t>追随教皇的脚步，为他献上阿卡。</t>
+  </si>
+  <si>
     <t>米格的太空船</t>
   </si>
   <si>
     <t>减少始发地10%市民,减少目的地10%市民,+15危险,-1气泡</t>
   </si>
   <si>
+    <t>去山中寻找飞船的人再也没有回来。</t>
+  </si>
+  <si>
     <t>紧急征召</t>
   </si>
   <si>
     <t>所有其他城市向始发地转移5%非信徒</t>
   </si>
   <si>
+    <t>以赤红之钢的名义！</t>
+  </si>
+  <si>
     <t>圣洁传导</t>
   </si>
   <si>
     <t>从始发地向所有其他城市转移5%信徒</t>
   </si>
   <si>
+    <t>愿阿卡与你同在！</t>
+  </si>
+  <si>
     <t>难民潮</t>
   </si>
   <si>
@@ -317,6 +359,9 @@
     <t>所有城市随机向另一个城市转移1%-20%的市民,+1气泡</t>
   </si>
   <si>
+    <t>但凡尚有选择，无人愿意背井离乡。</t>
+  </si>
+  <si>
     <t>垃圾牌</t>
   </si>
   <si>
@@ -335,6 +380,9 @@
     <t>自动生成在有空格子的随机城市（若没有空格子,随机替换掉一个非场地垃圾牌的教条牌）</t>
   </si>
   <si>
+    <t>完成任务，或者死亡。</t>
+  </si>
+  <si>
     <t>秘密行刑官</t>
   </si>
   <si>
@@ -347,6 +395,9 @@
     <t>在该教条存在时,该城市信徒无法转化</t>
   </si>
   <si>
+    <t>大斧之下，只有顺从，全无异念。</t>
+  </si>
+  <si>
     <t>真理的清算</t>
   </si>
   <si>
@@ -354,6 +405,9 @@
   </si>
   <si>
     <t>所有城市减少10%信徒,信仰值减少20%,危险值降低50</t>
+  </si>
+  <si>
+    <t>不应挑战女帝的权威，教皇也不行。</t>
   </si>
   <si>
     <t>耶兰多的低语</t>
@@ -381,6 +435,9 @@
 使用该牌清除一张库苏恩的拥抱</t>
   </si>
   <si>
+    <t>那金色的光斩断了水面，也斩断了真实的倒影。</t>
+  </si>
+  <si>
     <t>飞水螅的栖息地</t>
   </si>
   <si>
@@ -394,6 +451,9 @@
 在沙漠使用该牌清空其他教条牌且无法再放置新的教条牌</t>
   </si>
   <si>
+    <t>于地底的黑暗中盘旋飞舞。</t>
+  </si>
+  <si>
     <t>航空管制</t>
   </si>
   <si>
@@ -418,6 +478,9 @@
     <t>所有其他城市减少5%信徒,-2危险</t>
   </si>
   <si>
+    <t>整备，登船，准备行动！</t>
+  </si>
+  <si>
     <t>遗物牌</t>
   </si>
   <si>
@@ -433,6 +496,9 @@
     <t>遗物牌只可放置在雪山城市,同时存在3个遗物牌时游戏胜利</t>
   </si>
   <si>
+    <t>据说是来自梦之境的圣物。</t>
+  </si>
+  <si>
     <t>食梦貘的躯干</t>
   </si>
   <si>
@@ -458,6 +524,9 @@
   </si>
   <si>
     <t>+(探索次数*4)危险,+(探索次数*100)信仰</t>
+  </si>
+  <si>
+    <t>将种子置于土壤，静待花开。</t>
   </si>
   <si>
     <t>buff名称</t>
@@ -2143,8 +2212,8 @@
   <sheetPr/>
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2212,7 +2281,9 @@
         <v>13</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5"/>
@@ -2220,22 +2291,24 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5"/>
@@ -2243,22 +2316,24 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5"/>
@@ -2266,22 +2341,24 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5"/>
@@ -2289,22 +2366,24 @@
         <v>5</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="E6" s="12" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5"/>
@@ -2312,22 +2391,24 @@
         <v>6</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5"/>
@@ -2335,22 +2416,24 @@
         <v>7</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5"/>
@@ -2358,22 +2441,24 @@
         <v>8</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="I9" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5"/>
@@ -2381,22 +2466,24 @@
         <v>9</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5"/>
@@ -2404,32 +2491,34 @@
         <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F11" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" ht="40.5" spans="1:9">
+      <c r="I11" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B12" s="13">
         <v>11</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>11</v>
@@ -2441,22 +2530,22 @@
         <v>12</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" ht="27" spans="1:9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="5"/>
       <c r="B13" s="13">
         <v>12</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>11</v>
@@ -2468,48 +2557,48 @@
         <v>12</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" ht="27" spans="1:9">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="5"/>
       <c r="B14" s="11">
         <v>13</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" ht="27" spans="1:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="5"/>
       <c r="B15" s="3">
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>12</v>
@@ -2518,11 +2607,11 @@
         <v>12</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" ht="27" spans="1:9">
@@ -2531,25 +2620,25 @@
         <v>15</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -2558,7 +2647,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>11</v>
@@ -2567,14 +2656,14 @@
         <v>12</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -2583,7 +2672,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>11</v>
@@ -2595,20 +2684,20 @@
         <v>12</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" ht="40.5" spans="1:9">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="1:9">
       <c r="A19" s="5"/>
       <c r="B19" s="12">
         <v>18</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>11</v>
@@ -2620,11 +2709,11 @@
         <v>12</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -2633,7 +2722,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>11</v>
@@ -2645,11 +2734,11 @@
         <v>12</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2658,10 +2747,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E21" s="13" t="s">
         <v>12</v>
@@ -2670,24 +2759,24 @@
         <v>12</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B22" s="12">
         <v>21</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>11</v>
@@ -2696,13 +2785,15 @@
         <v>12</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="5"/>
@@ -2710,7 +2801,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>11</v>
@@ -2719,13 +2810,15 @@
         <v>12</v>
       </c>
       <c r="F23" s="19" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5"/>
@@ -2733,7 +2826,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>11</v>
@@ -2742,13 +2835,15 @@
         <v>12</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="5"/>
@@ -2756,7 +2851,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>11</v>
@@ -2765,13 +2860,15 @@
         <v>12</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="I25" s="3" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5"/>
@@ -2779,7 +2876,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D26" s="11" t="s">
         <v>11</v>
@@ -2788,13 +2885,15 @@
         <v>12</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="I26" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5"/>
@@ -2802,7 +2901,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>11</v>
@@ -2811,40 +2910,44 @@
         <v>12</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="I27" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="28" ht="27" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B28" s="13">
         <v>27</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="I28" s="3"/>
+        <v>115</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="29" ht="27" spans="1:9">
       <c r="A29" s="5"/>
@@ -2852,22 +2955,24 @@
         <v>28</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="H29" s="16"/>
-      <c r="I29" s="3"/>
+      <c r="I29" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="30" ht="27" spans="1:9">
       <c r="A30" s="5"/>
@@ -2875,22 +2980,24 @@
         <v>29</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="H30" s="16"/>
-      <c r="I30" s="3"/>
+      <c r="I30" s="3" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="31" ht="27" spans="1:9">
       <c r="A31" s="5"/>
@@ -2898,23 +3005,23 @@
         <v>30</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="F31" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="17" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" ht="54" spans="1:9">
@@ -2923,22 +3030,24 @@
         <v>31</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F32" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="I32" s="3" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="33" ht="40.5" spans="1:9">
       <c r="A33" s="5"/>
@@ -2946,22 +3055,24 @@
         <v>32</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="I33" s="5" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="34" ht="54" spans="1:9">
       <c r="A34" s="5"/>
@@ -2969,25 +3080,25 @@
         <v>33</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" ht="54" spans="1:9">
@@ -2996,49 +3107,53 @@
         <v>34</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="F35" s="13" t="s">
         <v>12</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
+      <c r="I35" s="5" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="36" ht="27" spans="1:9">
       <c r="A36" s="5" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="B36" s="3">
         <v>35</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="I36" s="3"/>
+        <v>153</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="37" ht="27" spans="1:9">
       <c r="A37" s="5"/>
@@ -3046,22 +3161,24 @@
         <v>36</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="H37" s="16"/>
-      <c r="I37" s="3"/>
+      <c r="I37" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="38" ht="40.5" spans="1:9">
       <c r="A38" s="5"/>
@@ -3069,35 +3186,37 @@
         <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="H38" s="16"/>
-      <c r="I38" s="3"/>
+      <c r="I38" s="3" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B39" s="11">
         <v>38</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>12</v>
@@ -3106,10 +3225,12 @@
         <v>12</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="I39" s="3" t="s">
+        <v>164</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3151,13 +3272,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -3168,10 +3289,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3179,10 +3300,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3190,10 +3311,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3201,10 +3322,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3212,10 +3333,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3223,10 +3344,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3234,13 +3355,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3248,13 +3369,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3262,13 +3383,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3276,13 +3397,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3290,13 +3411,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3311,7 +3432,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3328,10 +3449,10 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -3342,13 +3463,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="C2" s="6">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3356,10 +3477,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3367,13 +3488,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="C4" s="6">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3381,7 +3502,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -3392,13 +3513,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="C6" s="6">
         <v>99</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3406,7 +3527,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="C7" s="6">
         <v>300</v>
@@ -3417,13 +3538,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3431,10 +3552,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3442,10 +3563,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3453,10 +3574,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3464,10 +3585,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:4">
@@ -3475,13 +3596,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3495,10 +3616,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3506,10 +3627,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3517,7 +3638,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="C17" s="1">
         <v>18750</v>
@@ -3528,10 +3649,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3539,7 +3660,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>203</v>
+        <v>226</v>
       </c>
       <c r="C19" s="1">
         <v>31250</v>
@@ -3551,10 +3672,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3562,7 +3683,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="C21" s="1">
         <v>7500</v>
@@ -3573,10 +3694,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3584,7 +3705,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="C23" s="1">
         <v>5000</v>
@@ -3595,10 +3716,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3606,7 +3727,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="C25" s="1">
         <v>3750</v>
@@ -3617,10 +3738,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3628,7 +3749,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="C27" s="1">
         <v>8750</v>
@@ -3639,10 +3760,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3653,48 +3774,48 @@
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="1" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3739,7 +3860,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3748,13 +3869,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3763,13 +3884,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3778,13 +3899,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3793,13 +3914,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3808,13 +3929,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3823,13 +3944,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3838,13 +3959,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3853,13 +3974,13 @@
         <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3868,30 +3989,30 @@
         <v>10</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B11" s="3">
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3900,13 +4021,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3915,13 +4036,13 @@
         <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3930,13 +4051,13 @@
         <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3945,13 +4066,13 @@
         <v>15</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3960,13 +4081,13 @@
         <v>16</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3975,13 +4096,13 @@
         <v>17</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3990,13 +4111,13 @@
         <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4005,13 +4126,13 @@
         <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" ht="27" spans="1:5">
@@ -4020,33 +4141,33 @@
         <v>20</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B21" s="3">
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:5">
@@ -4055,13 +4176,13 @@
         <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" ht="27" spans="1:5">
@@ -4070,13 +4191,13 @@
         <v>23</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:5">
@@ -4085,13 +4206,13 @@
         <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:5">
@@ -4100,13 +4221,13 @@
         <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4115,13 +4236,13 @@
         <v>26</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:5">
@@ -4130,13 +4251,13 @@
         <v>27</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4145,13 +4266,13 @@
         <v>28</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:5">
@@ -4160,13 +4281,13 @@
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4175,30 +4296,30 @@
         <v>30</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" ht="40.5" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B31" s="3">
         <v>31</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" ht="40.5" spans="1:5">
@@ -4207,13 +4328,13 @@
         <v>32</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" ht="40.5" spans="1:5">
@@ -4222,13 +4343,13 @@
         <v>33</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" ht="40.5" spans="1:5">
@@ -4237,13 +4358,13 @@
         <v>34</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" ht="40.5" spans="1:5">
@@ -4252,13 +4373,13 @@
         <v>35</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" ht="40.5" spans="1:5">
@@ -4267,13 +4388,13 @@
         <v>36</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" ht="40.5" spans="1:5">
@@ -4282,13 +4403,13 @@
         <v>37</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" ht="40.5" spans="1:5">
@@ -4297,13 +4418,13 @@
         <v>38</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:5">
@@ -4312,30 +4433,30 @@
         <v>39</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="B40" s="3">
         <v>40</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41" ht="27" spans="1:5">
@@ -4344,13 +4465,13 @@
         <v>41</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42" ht="27" spans="1:5">
@@ -4359,30 +4480,30 @@
         <v>42</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" ht="27" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="B43" s="2">
         <v>43</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/策划案/GGJ配置表/卡牌效果一览表.xlsx
+++ b/策划案/GGJ配置表/卡牌效果一览表.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26430" windowHeight="11775" tabRatio="511"/>
+    <workbookView windowWidth="28635" windowHeight="13650" tabRatio="511"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌效果一览表_ggj" sheetId="1" r:id="rId1"/>
     <sheet name="全局buff表" sheetId="4" r:id="rId2"/>
-    <sheet name="基础数值管理" sheetId="2" r:id="rId3"/>
-    <sheet name="卡牌效果一览表_备份" sheetId="3" r:id="rId4"/>
+    <sheet name="结算文本" sheetId="5" r:id="rId3"/>
+    <sheet name="基础数值管理" sheetId="2" r:id="rId4"/>
+    <sheet name="卡牌效果一览表_备份" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="321">
   <si>
     <t>流派</t>
   </si>
@@ -523,12 +524,15 @@
     <t>x布道场</t>
   </si>
   <si>
-    <t>+(探索次数*4)危险,+(探索次数*100)信仰</t>
+    <t>+(探索次数*4)危险</t>
   </si>
   <si>
     <t>将种子置于土壤，静待花开。</t>
   </si>
   <si>
+    <t>+(探索次数*100)信仰</t>
+  </si>
+  <si>
     <t>buff名称</t>
   </si>
   <si>
@@ -611,6 +615,57 @@
   </si>
   <si>
     <t>至少通过收集遗物获胜一次后解锁</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>胜利</t>
+  </si>
+  <si>
+    <t>所有人死亡</t>
+  </si>
+  <si>
+    <t>巴伯大陆迎来了终结，也迎来了新生</t>
+  </si>
+  <si>
+    <t>转化所有信徒</t>
+  </si>
+  <si>
+    <t>XXX教会的影响力遍布巴伯大陆的每个角落</t>
+  </si>
+  <si>
+    <t>气泡突破100</t>
+  </si>
+  <si>
+    <t>巴伯大陆的人们在这一刻见到了真实</t>
+  </si>
+  <si>
+    <t>集齐三件遗物</t>
+  </si>
+  <si>
+    <t>欢迎来到属于梦境的永恒国度</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>时间达到865年</t>
+  </si>
+  <si>
+    <t>双星再度归位，世界迎来了灭亡</t>
+  </si>
+  <si>
+    <t>失去所有信徒</t>
+  </si>
+  <si>
+    <t>XXX教会失去了最后一名忠诚的信徒</t>
   </si>
   <si>
     <t>变量名</t>
@@ -1616,7 +1671,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1650,6 +1705,15 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1676,6 +1740,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2210,10 +2277,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2226,7 +2293,8 @@
     <col min="7" max="7" width="57.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="40" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="10" max="10" width="22.375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2262,22 +2330,22 @@
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="14">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="18" t="s">
+      <c r="E2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="21" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="3"/>
@@ -2287,22 +2355,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5"/>
-      <c r="B3" s="11">
+      <c r="B3" s="14">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="F3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="3"/>
@@ -2312,22 +2380,22 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5"/>
-      <c r="B4" s="11">
+      <c r="B4" s="14">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="3"/>
@@ -2337,22 +2405,22 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5"/>
-      <c r="B5" s="11">
+      <c r="B5" s="14">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="3"/>
@@ -2362,22 +2430,22 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5"/>
-      <c r="B6" s="12">
+      <c r="B6" s="15">
         <v>5</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="3"/>
@@ -2387,22 +2455,22 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5"/>
-      <c r="B7" s="12">
+      <c r="B7" s="15">
         <v>6</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="12" t="s">
+      <c r="F7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>34</v>
       </c>
       <c r="H7" s="3"/>
@@ -2412,22 +2480,22 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5"/>
-      <c r="B8" s="12">
+      <c r="B8" s="15">
         <v>7</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="12" t="s">
+      <c r="F8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>38</v>
       </c>
       <c r="H8" s="3"/>
@@ -2437,22 +2505,22 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5"/>
-      <c r="B9" s="12">
+      <c r="B9" s="15">
         <v>8</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="12" t="s">
+      <c r="F9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>42</v>
       </c>
       <c r="H9" s="5"/>
@@ -2462,22 +2530,22 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5"/>
-      <c r="B10" s="12">
+      <c r="B10" s="15">
         <v>9</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="F10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>46</v>
       </c>
       <c r="H10" s="3"/>
@@ -2487,22 +2555,22 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5"/>
-      <c r="B11" s="11">
+      <c r="B11" s="14">
         <v>10</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="F11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="14" t="s">
         <v>50</v>
       </c>
       <c r="H11" s="3"/>
@@ -2514,25 +2582,25 @@
       <c r="A12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="16">
         <v>11</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="13" t="s">
+      <c r="E12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="17" t="s">
         <v>55</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -2541,47 +2609,47 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="5"/>
-      <c r="B13" s="13">
-        <v>12</v>
-      </c>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="16">
+        <v>12</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="13" t="s">
+      <c r="E13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5"/>
-      <c r="B14" s="11">
+      <c r="B14" s="14">
         <v>13</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="18" t="s">
+      <c r="E14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="14" t="s">
         <v>62</v>
       </c>
       <c r="H14" s="3"/>
@@ -2616,22 +2684,22 @@
     </row>
     <row r="16" ht="27" spans="1:9">
       <c r="A16" s="5"/>
-      <c r="B16" s="11">
+      <c r="B16" s="14">
         <v>15</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="18" t="s">
+      <c r="E16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="14" t="s">
         <v>70</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -2643,22 +2711,22 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5"/>
-      <c r="B17" s="12">
+      <c r="B17" s="15">
         <v>16</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="19" t="s">
+      <c r="E17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="15" t="s">
         <v>75</v>
       </c>
       <c r="H17" s="3"/>
@@ -2668,22 +2736,22 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5"/>
-      <c r="B18" s="13">
+      <c r="B18" s="16">
         <v>17</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="13" t="s">
+      <c r="E18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>78</v>
       </c>
       <c r="H18" s="3"/>
@@ -2693,22 +2761,22 @@
     </row>
     <row r="19" ht="27" spans="1:9">
       <c r="A19" s="5"/>
-      <c r="B19" s="12">
+      <c r="B19" s="15">
         <v>18</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="12" t="s">
+      <c r="E19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="15" t="s">
         <v>81</v>
       </c>
       <c r="H19" s="3"/>
@@ -2718,22 +2786,22 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5"/>
-      <c r="B20" s="13">
+      <c r="B20" s="16">
         <v>19</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="13" t="s">
+      <c r="E20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="16" t="s">
         <v>84</v>
       </c>
       <c r="H20" s="3"/>
@@ -2743,22 +2811,22 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="5"/>
-      <c r="B21" s="13">
+      <c r="B21" s="16">
         <v>20</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D21" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="13" t="s">
+      <c r="E21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>87</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -2772,22 +2840,22 @@
       <c r="A22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="15">
         <v>21</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="19" t="s">
+      <c r="E22" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="15" t="s">
         <v>92</v>
       </c>
       <c r="H22" s="3"/>
@@ -2797,22 +2865,22 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="5"/>
-      <c r="B23" s="12">
+      <c r="B23" s="15">
         <v>22</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="19" t="s">
+      <c r="E23" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="15" t="s">
         <v>95</v>
       </c>
       <c r="H23" s="3"/>
@@ -2822,22 +2890,22 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5"/>
-      <c r="B24" s="12">
+      <c r="B24" s="15">
         <v>23</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="19" t="s">
+      <c r="E24" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="15" t="s">
         <v>98</v>
       </c>
       <c r="H24" s="3"/>
@@ -2847,22 +2915,22 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="5"/>
-      <c r="B25" s="11">
+      <c r="B25" s="14">
         <v>24</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="18" t="s">
+      <c r="E25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="14" t="s">
         <v>101</v>
       </c>
       <c r="H25" s="3"/>
@@ -2872,22 +2940,22 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5"/>
-      <c r="B26" s="11">
+      <c r="B26" s="14">
         <v>25</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="18" t="s">
+      <c r="E26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="14" t="s">
         <v>104</v>
       </c>
       <c r="H26" s="3"/>
@@ -2897,22 +2965,22 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5"/>
-      <c r="B27" s="11">
+      <c r="B27" s="14">
         <v>26</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="18" t="s">
+      <c r="E27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="14" t="s">
         <v>108</v>
       </c>
       <c r="H27" s="3"/>
@@ -2924,25 +2992,25 @@
       <c r="A28" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="16">
         <v>27</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="13" t="s">
+      <c r="E28" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="13" t="s">
+      <c r="F28" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="H28" s="16" t="s">
+      <c r="H28" s="19" t="s">
         <v>115</v>
       </c>
       <c r="I28" s="3" t="s">
@@ -2951,25 +3019,25 @@
     </row>
     <row r="29" ht="27" spans="1:9">
       <c r="A29" s="5"/>
-      <c r="B29" s="13">
+      <c r="B29" s="16">
         <v>28</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="13" t="s">
+      <c r="E29" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="F29" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="13" t="s">
+      <c r="F29" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="H29" s="16"/>
+      <c r="H29" s="19"/>
       <c r="I29" s="3" t="s">
         <v>121</v>
       </c>
@@ -2994,54 +3062,54 @@
       <c r="G30" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H30" s="16"/>
+      <c r="H30" s="19"/>
       <c r="I30" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="31" ht="27" spans="1:9">
       <c r="A31" s="5"/>
-      <c r="B31" s="11">
+      <c r="B31" s="14">
         <v>30</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="11" t="s">
+      <c r="F31" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="17" t="s">
+      <c r="H31" s="19"/>
+      <c r="I31" s="20" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="32" ht="54" spans="1:9">
       <c r="A32" s="5"/>
-      <c r="B32" s="11">
+      <c r="B32" s="14">
         <v>31</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="11" t="s">
+      <c r="F32" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="14" t="s">
         <v>133</v>
       </c>
       <c r="H32" s="3"/>
@@ -3076,22 +3144,22 @@
     </row>
     <row r="34" ht="54" spans="1:9">
       <c r="A34" s="5"/>
-      <c r="B34" s="12">
+      <c r="B34" s="15">
         <v>33</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="F34" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="12" t="s">
+      <c r="F34" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="15" t="s">
         <v>142</v>
       </c>
       <c r="H34" s="5" t="s">
@@ -3103,22 +3171,22 @@
     </row>
     <row r="35" ht="54" spans="1:9">
       <c r="A35" s="5"/>
-      <c r="B35" s="13">
+      <c r="B35" s="16">
         <v>34</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="F35" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="13" t="s">
+      <c r="F35" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="16" t="s">
         <v>147</v>
       </c>
       <c r="H35" s="5"/>
@@ -3148,7 +3216,7 @@
       <c r="G36" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H36" s="16" t="s">
+      <c r="H36" s="19" t="s">
         <v>153</v>
       </c>
       <c r="I36" s="3" t="s">
@@ -3175,7 +3243,7 @@
       <c r="G37" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H37" s="16"/>
+      <c r="H37" s="19"/>
       <c r="I37" s="3" t="s">
         <v>154</v>
       </c>
@@ -3200,36 +3268,39 @@
       <c r="G38" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H38" s="16"/>
+      <c r="H38" s="19"/>
       <c r="I38" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:10">
       <c r="A39" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="14">
         <v>38</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="18" t="s">
+      <c r="E39" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="21" t="s">
         <v>163</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3" t="s">
         <v>164</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3272,13 +3343,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -3289,10 +3360,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3300,10 +3371,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3311,10 +3382,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3322,10 +3393,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3333,10 +3404,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3344,10 +3415,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3355,13 +3426,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3369,13 +3440,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3383,13 +3454,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3397,13 +3468,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3411,13 +3482,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3429,10 +3500,139 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="37.625" customWidth="1"/>
+    <col min="5" max="5" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="11">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="13"/>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="13"/>
+      <c r="B4" s="11">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="13"/>
+      <c r="B5" s="11">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="11">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="13"/>
+      <c r="B7" s="11">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3449,10 +3649,10 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" s="1" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -3463,13 +3663,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="C2" s="6">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3477,10 +3677,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3488,13 +3688,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C4" s="6">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3502,7 +3702,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -3513,13 +3713,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="C6" s="6">
         <v>99</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3527,7 +3727,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="C7" s="6">
         <v>300</v>
@@ -3538,13 +3738,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3552,10 +3752,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3563,10 +3763,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3574,10 +3774,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3585,10 +3785,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:4">
@@ -3596,13 +3796,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3616,10 +3816,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3627,10 +3827,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3638,7 +3838,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="C17" s="1">
         <v>18750</v>
@@ -3649,10 +3849,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3660,7 +3860,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="C19" s="1">
         <v>31250</v>
@@ -3672,10 +3872,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>225</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3683,7 +3883,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="C21" s="1">
         <v>7500</v>
@@ -3694,10 +3894,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3705,7 +3905,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>231</v>
+        <v>249</v>
       </c>
       <c r="C23" s="1">
         <v>5000</v>
@@ -3716,10 +3916,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3727,7 +3927,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="C25" s="1">
         <v>3750</v>
@@ -3738,10 +3938,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3749,7 +3949,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="C27" s="1">
         <v>8750</v>
@@ -3760,10 +3960,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3774,48 +3974,48 @@
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="1" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3827,12 +4027,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" topLeftCell="A32" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -3860,7 +4060,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>245</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3875,7 +4075,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>246</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3890,7 +4090,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>247</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3905,7 +4105,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3920,7 +4120,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3935,7 +4135,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3950,7 +4150,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3965,7 +4165,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3980,7 +4180,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3995,7 +4195,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4006,13 +4206,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4021,13 +4221,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4042,7 +4242,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4057,7 +4257,7 @@
         <v>24</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4072,7 +4272,7 @@
         <v>68</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4087,7 +4287,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>262</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4102,7 +4302,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4117,7 +4317,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>264</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4132,7 +4332,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" ht="27" spans="1:5">
@@ -4147,7 +4347,7 @@
         <v>68</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>266</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:6">
@@ -4158,16 +4358,16 @@
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>269</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:5">
@@ -4176,13 +4376,13 @@
         <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" ht="27" spans="1:5">
@@ -4191,13 +4391,13 @@
         <v>23</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:5">
@@ -4206,13 +4406,13 @@
         <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:5">
@@ -4221,13 +4421,13 @@
         <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4236,13 +4436,13 @@
         <v>26</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:5">
@@ -4251,13 +4451,13 @@
         <v>27</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4266,13 +4466,13 @@
         <v>28</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>283</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:5">
@@ -4281,13 +4481,13 @@
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4296,13 +4496,13 @@
         <v>30</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" ht="40.5" spans="1:5">
@@ -4313,13 +4513,13 @@
         <v>31</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" ht="40.5" spans="1:5">
@@ -4334,7 +4534,7 @@
         <v>118</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>290</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" ht="40.5" spans="1:5">
@@ -4349,7 +4549,7 @@
         <v>112</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" ht="40.5" spans="1:5">
@@ -4364,7 +4564,7 @@
         <v>118</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" ht="40.5" spans="1:5">
@@ -4379,7 +4579,7 @@
         <v>131</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" ht="40.5" spans="1:5">
@@ -4394,7 +4594,7 @@
         <v>136</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>294</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" ht="40.5" spans="1:5">
@@ -4409,7 +4609,7 @@
         <v>118</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>295</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" ht="40.5" spans="1:5">
@@ -4424,7 +4624,7 @@
         <v>131</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>296</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:5">
@@ -4433,13 +4633,13 @@
         <v>39</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:5">
@@ -4456,7 +4656,7 @@
         <v>149</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" ht="27" spans="1:5">
@@ -4471,7 +4671,7 @@
         <v>149</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>300</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" ht="27" spans="1:5">
@@ -4486,7 +4686,7 @@
         <v>149</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>301</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" ht="27" spans="1:5">
@@ -4503,7 +4703,7 @@
         <v>161</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>302</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/策划案/GGJ配置表/卡牌效果一览表.xlsx
+++ b/策划案/GGJ配置表/卡牌效果一览表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28635" windowHeight="13650" tabRatio="511"/>
+    <workbookView windowWidth="18345" windowHeight="17655" tabRatio="511"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌效果一览表_ggj" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="336">
   <si>
     <t>流派</t>
   </si>
@@ -531,6 +531,51 @@
   </si>
   <si>
     <t>+(探索次数*100)信仰</t>
+  </si>
+  <si>
+    <t>残破的笔记本</t>
+  </si>
+  <si>
+    <t>-100信仰</t>
+  </si>
+  <si>
+    <t>放置于圣城以开启调查任务</t>
+  </si>
+  <si>
+    <t>粘土浮雕</t>
+  </si>
+  <si>
+    <t>-600信仰</t>
+  </si>
+  <si>
+    <t>放置于圣城以继续调查任务</t>
+  </si>
+  <si>
+    <t>克苏鲁教团手稿</t>
+  </si>
+  <si>
+    <t>-1200信仰</t>
+  </si>
+  <si>
+    <t>可怖的照片</t>
+  </si>
+  <si>
+    <t>-2000信仰</t>
+  </si>
+  <si>
+    <t>艾玛号帆船</t>
+  </si>
+  <si>
+    <t>-2800信仰</t>
+  </si>
+  <si>
+    <t>梦魇死城拉莱耶</t>
+  </si>
+  <si>
+    <t>-3600信仰</t>
+  </si>
+  <si>
+    <t>放置于圣城以完成调查任务</t>
   </si>
   <si>
     <t>buff名称</t>
@@ -1705,33 +1750,33 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1742,6 +1787,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2277,10 +2325,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2330,19 +2378,19 @@
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="12">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="21" t="s">
@@ -2355,22 +2403,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5"/>
-      <c r="B3" s="14">
+      <c r="B3" s="12">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="3"/>
@@ -2380,22 +2428,22 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5"/>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>3</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H4" s="3"/>
@@ -2405,22 +2453,22 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5"/>
-      <c r="B5" s="14">
+      <c r="B5" s="12">
         <v>4</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="F5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H5" s="3"/>
@@ -2430,22 +2478,22 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5"/>
-      <c r="B6" s="15">
+      <c r="B6" s="13">
         <v>5</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="15" t="s">
+      <c r="F6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="13" t="s">
         <v>30</v>
       </c>
       <c r="H6" s="3"/>
@@ -2455,22 +2503,22 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5"/>
-      <c r="B7" s="15">
+      <c r="B7" s="13">
         <v>6</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="13" t="s">
         <v>34</v>
       </c>
       <c r="H7" s="3"/>
@@ -2480,22 +2528,22 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5"/>
-      <c r="B8" s="15">
+      <c r="B8" s="13">
         <v>7</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="F8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>38</v>
       </c>
       <c r="H8" s="3"/>
@@ -2505,22 +2553,22 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5"/>
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <v>8</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="F9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>42</v>
       </c>
       <c r="H9" s="5"/>
@@ -2530,22 +2578,22 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5"/>
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>9</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="F10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>46</v>
       </c>
       <c r="H10" s="3"/>
@@ -2555,22 +2603,22 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5"/>
-      <c r="B11" s="14">
+      <c r="B11" s="12">
         <v>10</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="14" t="s">
+      <c r="F11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="12" t="s">
         <v>50</v>
       </c>
       <c r="H11" s="3"/>
@@ -2582,25 +2630,25 @@
       <c r="A12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>11</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="16" t="s">
+      <c r="E12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="15" t="s">
         <v>55</v>
       </c>
       <c r="I12" s="3" t="s">
@@ -2609,47 +2657,47 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="5"/>
-      <c r="B13" s="16">
-        <v>12</v>
-      </c>
-      <c r="C13" s="16" t="s">
+      <c r="B13" s="14">
+        <v>12</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="16" t="s">
+      <c r="E13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H13" s="18"/>
+      <c r="H13" s="16"/>
       <c r="I13" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5"/>
-      <c r="B14" s="14">
+      <c r="B14" s="12">
         <v>13</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="12" t="s">
         <v>62</v>
       </c>
       <c r="H14" s="3"/>
@@ -2684,22 +2732,22 @@
     </row>
     <row r="16" ht="27" spans="1:9">
       <c r="A16" s="5"/>
-      <c r="B16" s="14">
+      <c r="B16" s="12">
         <v>15</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="12" t="s">
         <v>70</v>
       </c>
       <c r="H16" s="3" t="s">
@@ -2711,22 +2759,22 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="5"/>
-      <c r="B17" s="15">
+      <c r="B17" s="13">
         <v>16</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F17" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="13" t="s">
         <v>75</v>
       </c>
       <c r="H17" s="3"/>
@@ -2736,22 +2784,22 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="5"/>
-      <c r="B18" s="16">
+      <c r="B18" s="14">
         <v>17</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="16" t="s">
+      <c r="E18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="14" t="s">
         <v>78</v>
       </c>
       <c r="H18" s="3"/>
@@ -2761,22 +2809,22 @@
     </row>
     <row r="19" ht="27" spans="1:9">
       <c r="A19" s="5"/>
-      <c r="B19" s="15">
+      <c r="B19" s="13">
         <v>18</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="15" t="s">
+      <c r="E19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>81</v>
       </c>
       <c r="H19" s="3"/>
@@ -2786,22 +2834,22 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="5"/>
-      <c r="B20" s="16">
+      <c r="B20" s="14">
         <v>19</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="16" t="s">
+      <c r="E20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>84</v>
       </c>
       <c r="H20" s="3"/>
@@ -2811,22 +2859,22 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="5"/>
-      <c r="B21" s="16">
+      <c r="B21" s="14">
         <v>20</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="16" t="s">
+      <c r="E21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>87</v>
       </c>
       <c r="H21" s="3" t="s">
@@ -2840,22 +2888,22 @@
       <c r="A22" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="13">
         <v>21</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F22" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="13" t="s">
         <v>92</v>
       </c>
       <c r="H22" s="3"/>
@@ -2865,22 +2913,22 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="5"/>
-      <c r="B23" s="15">
+      <c r="B23" s="13">
         <v>22</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F23" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="13" t="s">
         <v>95</v>
       </c>
       <c r="H23" s="3"/>
@@ -2890,22 +2938,22 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="5"/>
-      <c r="B24" s="15">
+      <c r="B24" s="13">
         <v>23</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F24" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="13" t="s">
         <v>98</v>
       </c>
       <c r="H24" s="3"/>
@@ -2915,22 +2963,22 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="5"/>
-      <c r="B25" s="14">
+      <c r="B25" s="12">
         <v>24</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F25" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="12" t="s">
         <v>101</v>
       </c>
       <c r="H25" s="3"/>
@@ -2940,22 +2988,22 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="5"/>
-      <c r="B26" s="14">
+      <c r="B26" s="12">
         <v>25</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F26" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="12" t="s">
         <v>104</v>
       </c>
       <c r="H26" s="3"/>
@@ -2965,22 +3013,22 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5"/>
-      <c r="B27" s="14">
+      <c r="B27" s="12">
         <v>26</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F27" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="12" t="s">
         <v>108</v>
       </c>
       <c r="H27" s="3"/>
@@ -2992,25 +3040,25 @@
       <c r="A28" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="14">
         <v>27</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="16" t="s">
+      <c r="F28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="17" t="s">
         <v>115</v>
       </c>
       <c r="I28" s="3" t="s">
@@ -3019,25 +3067,25 @@
     </row>
     <row r="29" ht="27" spans="1:9">
       <c r="A29" s="5"/>
-      <c r="B29" s="16">
+      <c r="B29" s="14">
         <v>28</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="F29" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="16" t="s">
+      <c r="F29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="H29" s="19"/>
+      <c r="H29" s="17"/>
       <c r="I29" s="3" t="s">
         <v>121</v>
       </c>
@@ -3062,54 +3110,54 @@
       <c r="G30" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="H30" s="19"/>
+      <c r="H30" s="17"/>
       <c r="I30" s="3" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="31" ht="27" spans="1:9">
       <c r="A31" s="5"/>
-      <c r="B31" s="14">
+      <c r="B31" s="12">
         <v>30</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C31" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="14" t="s">
+      <c r="F31" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="H31" s="19"/>
+      <c r="H31" s="17"/>
       <c r="I31" s="20" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="32" ht="54" spans="1:9">
       <c r="A32" s="5"/>
-      <c r="B32" s="14">
+      <c r="B32" s="12">
         <v>31</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C32" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="F32" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="14" t="s">
+      <c r="F32" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="12" t="s">
         <v>133</v>
       </c>
       <c r="H32" s="3"/>
@@ -3144,22 +3192,22 @@
     </row>
     <row r="34" ht="54" spans="1:9">
       <c r="A34" s="5"/>
-      <c r="B34" s="15">
+      <c r="B34" s="13">
         <v>33</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="E34" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F34" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="15" t="s">
+      <c r="F34" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="13" t="s">
         <v>142</v>
       </c>
       <c r="H34" s="5" t="s">
@@ -3171,22 +3219,22 @@
     </row>
     <row r="35" ht="54" spans="1:9">
       <c r="A35" s="5"/>
-      <c r="B35" s="16">
+      <c r="B35" s="14">
         <v>34</v>
       </c>
-      <c r="C35" s="16" t="s">
+      <c r="C35" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E35" s="16" t="s">
+      <c r="E35" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="F35" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="16" t="s">
+      <c r="F35" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>147</v>
       </c>
       <c r="H35" s="5"/>
@@ -3216,7 +3264,7 @@
       <c r="G36" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="H36" s="19" t="s">
+      <c r="H36" s="17" t="s">
         <v>153</v>
       </c>
       <c r="I36" s="3" t="s">
@@ -3243,7 +3291,7 @@
       <c r="G37" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="H37" s="19"/>
+      <c r="H37" s="17"/>
       <c r="I37" s="3" t="s">
         <v>154</v>
       </c>
@@ -3268,7 +3316,7 @@
       <c r="G38" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H38" s="19"/>
+      <c r="H38" s="17"/>
       <c r="I38" s="3" t="s">
         <v>154</v>
       </c>
@@ -3277,19 +3325,19 @@
       <c r="A39" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="12">
         <v>38</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C39" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="14" t="s">
+      <c r="E39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="12" t="s">
         <v>12</v>
       </c>
       <c r="G39" s="21" t="s">
@@ -3303,13 +3351,128 @@
         <v>165</v>
       </c>
     </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="18"/>
+      <c r="B40" s="19">
+        <v>39</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="18"/>
+      <c r="B41" s="19">
+        <v>40</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="18"/>
+      <c r="B42" s="19">
+        <v>41</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="18"/>
+      <c r="B43" s="19">
+        <v>42</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="19"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19">
+        <v>43</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="18"/>
+      <c r="B45" s="19">
+        <v>44</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A35"/>
     <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A40:A45"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="H28:H31"/>
     <mergeCell ref="H36:H38"/>
@@ -3343,13 +3506,13 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>7</v>
@@ -3360,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3371,10 +3534,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3382,10 +3545,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3393,10 +3556,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3404,10 +3567,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3415,10 +3578,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3426,13 +3589,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3440,13 +3603,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3454,13 +3617,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3468,13 +3631,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3482,13 +3645,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -3502,8 +3665,8 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -3514,105 +3677,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="B2" s="11">
+      <c r="A2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E2" s="12"/>
+      <c r="C2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="13"/>
-      <c r="B3" s="11">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="C3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="13"/>
-      <c r="B4" s="11">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E4" s="12"/>
+      <c r="C4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5" s="12"/>
+      <c r="C5" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="B6" s="11">
+      <c r="A6" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="E6" s="12"/>
+      <c r="C6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" s="11"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="13"/>
-      <c r="B7" s="11">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" s="12" t="s">
+      <c r="C7" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3649,10 +3812,10 @@
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" s="1" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -3663,13 +3826,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="C2" s="6">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3677,10 +3840,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3688,13 +3851,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="C4" s="6">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3702,7 +3865,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
@@ -3713,13 +3876,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="C6" s="6">
         <v>99</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3727,7 +3890,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="C7" s="6">
         <v>300</v>
@@ -3738,13 +3901,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -3752,10 +3915,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3763,10 +3926,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3774,10 +3937,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -3785,10 +3948,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" ht="27" spans="1:4">
@@ -3796,13 +3959,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3816,10 +3979,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3827,10 +3990,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -3838,7 +4001,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="C17" s="1">
         <v>18750</v>
@@ -3849,10 +4012,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -3860,7 +4023,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="C19" s="1">
         <v>31250</v>
@@ -3872,10 +4035,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3883,7 +4046,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="C21" s="1">
         <v>7500</v>
@@ -3894,10 +4057,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3905,7 +4068,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="C23" s="1">
         <v>5000</v>
@@ -3916,10 +4079,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3927,7 +4090,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="C25" s="1">
         <v>3750</v>
@@ -3938,10 +4101,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -3949,7 +4112,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="C27" s="1">
         <v>8750</v>
@@ -3960,10 +4123,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3974,48 +4137,48 @@
     </row>
     <row r="30" spans="2:3">
       <c r="B30" s="1" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="C30" s="1"/>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="1" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" s="1" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" s="1" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -4060,7 +4223,7 @@
         <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4075,7 +4238,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4090,7 +4253,7 @@
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4105,7 +4268,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4120,7 +4283,7 @@
         <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4135,7 +4298,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4150,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4165,7 +4328,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4180,7 +4343,7 @@
         <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4195,7 +4358,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4206,13 +4369,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4221,13 +4384,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4242,7 +4405,7 @@
         <v>24</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4257,7 +4420,7 @@
         <v>24</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4272,7 +4435,7 @@
         <v>68</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4287,7 +4450,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4302,7 +4465,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4317,7 +4480,7 @@
         <v>11</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4332,7 +4495,7 @@
         <v>11</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" ht="27" spans="1:5">
@@ -4347,7 +4510,7 @@
         <v>68</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" ht="27" spans="1:6">
@@ -4358,16 +4521,16 @@
         <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:5">
@@ -4376,13 +4539,13 @@
         <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" ht="27" spans="1:5">
@@ -4391,13 +4554,13 @@
         <v>23</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" ht="27" spans="1:5">
@@ -4406,13 +4569,13 @@
         <v>24</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" ht="27" spans="1:5">
@@ -4421,13 +4584,13 @@
         <v>25</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4436,13 +4599,13 @@
         <v>26</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" ht="27" spans="1:5">
@@ -4451,13 +4614,13 @@
         <v>27</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4466,13 +4629,13 @@
         <v>28</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" ht="27" spans="1:5">
@@ -4481,13 +4644,13 @@
         <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>68</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4496,13 +4659,13 @@
         <v>30</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" ht="40.5" spans="1:5">
@@ -4513,13 +4676,13 @@
         <v>31</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>112</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
     </row>
     <row r="32" ht="40.5" spans="1:5">
@@ -4534,7 +4697,7 @@
         <v>118</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" ht="40.5" spans="1:5">
@@ -4549,7 +4712,7 @@
         <v>112</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" ht="40.5" spans="1:5">
@@ -4564,7 +4727,7 @@
         <v>118</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" ht="40.5" spans="1:5">
@@ -4579,7 +4742,7 @@
         <v>131</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" ht="40.5" spans="1:5">
@@ -4594,7 +4757,7 @@
         <v>136</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" ht="40.5" spans="1:5">
@@ -4609,7 +4772,7 @@
         <v>118</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
     </row>
     <row r="38" ht="40.5" spans="1:5">
@@ -4624,7 +4787,7 @@
         <v>131</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
     </row>
     <row r="39" ht="27" spans="1:5">
@@ -4633,13 +4796,13 @@
         <v>39</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>131</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" ht="27" spans="1:5">
@@ -4656,7 +4819,7 @@
         <v>149</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" ht="27" spans="1:5">
@@ -4671,7 +4834,7 @@
         <v>149</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" ht="27" spans="1:5">
@@ -4686,7 +4849,7 @@
         <v>149</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
     </row>
     <row r="43" ht="27" spans="1:5">
@@ -4703,7 +4866,7 @@
         <v>161</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/策划案/GGJ配置表/卡牌效果一览表.xlsx
+++ b/策划案/GGJ配置表/卡牌效果一览表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18345" windowHeight="17655" tabRatio="511"/>
+    <workbookView windowWidth="27945" windowHeight="12375" tabRatio="511"/>
   </bookViews>
   <sheets>
     <sheet name="卡牌效果一览表_ggj" sheetId="1" r:id="rId1"/>
@@ -1716,7 +1716,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1773,9 +1773,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2327,8 +2324,8 @@
   <sheetPr/>
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2393,7 +2390,7 @@
       <c r="F2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="20" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="3"/>
@@ -2694,7 +2691,7 @@
       <c r="E14" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="20" t="s">
         <v>61</v>
       </c>
       <c r="G14" s="12" t="s">
@@ -2744,7 +2741,7 @@
       <c r="E16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="20" t="s">
         <v>69</v>
       </c>
       <c r="G16" s="12" t="s">
@@ -2771,7 +2768,7 @@
       <c r="E17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="21" t="s">
         <v>74</v>
       </c>
       <c r="G17" s="13" t="s">
@@ -2900,7 +2897,7 @@
       <c r="E22" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="21" t="s">
         <v>61</v>
       </c>
       <c r="G22" s="13" t="s">
@@ -2925,7 +2922,7 @@
       <c r="E23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="21" t="s">
         <v>69</v>
       </c>
       <c r="G23" s="13" t="s">
@@ -2950,7 +2947,7 @@
       <c r="E24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="21" t="s">
         <v>74</v>
       </c>
       <c r="G24" s="13" t="s">
@@ -2975,7 +2972,7 @@
       <c r="E25" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>74</v>
       </c>
       <c r="G25" s="12" t="s">
@@ -3000,7 +2997,7 @@
       <c r="E26" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>74</v>
       </c>
       <c r="G26" s="12" t="s">
@@ -3025,7 +3022,7 @@
       <c r="E27" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="20" t="s">
         <v>107</v>
       </c>
       <c r="G27" s="12" t="s">
@@ -3136,7 +3133,7 @@
         <v>128</v>
       </c>
       <c r="H31" s="17"/>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="19" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3340,130 +3337,130 @@
       <c r="F39" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="21" t="s">
+      <c r="G39" s="20" t="s">
         <v>163</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J39" s="23" t="s">
+      <c r="J39" s="22" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="18"/>
-      <c r="B40" s="19">
+      <c r="B40" s="2">
         <v>39</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="24" t="s">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="G40" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="18"/>
-      <c r="B41" s="19">
+      <c r="B41" s="2">
         <v>40</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="24" t="s">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="G41" s="19" t="s">
+      <c r="G41" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="18"/>
-      <c r="B42" s="19">
+      <c r="B42" s="2">
         <v>41</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="24" t="s">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="G42" s="19" t="s">
+      <c r="G42" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="18"/>
-      <c r="B43" s="19">
+      <c r="B43" s="2">
         <v>42</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="24" t="s">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="G43" s="19" t="s">
+      <c r="G43" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="18"/>
-      <c r="B44" s="19">
+      <c r="B44" s="2">
         <v>43</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="24" t="s">
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="G44" s="19" t="s">
+      <c r="G44" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="18"/>
-      <c r="B45" s="19">
+      <c r="B45" s="2">
         <v>44</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="24" t="s">
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="G45" s="19" t="s">
+      <c r="G45" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="9">
